--- a/5.Project/template.xlsx
+++ b/5.Project/template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Raport z naprawy</t>
   </si>
@@ -77,6 +77,42 @@
   </si>
   <si>
     <t>TOTALS:</t>
+  </si>
+  <si>
+    <t>PODZESPÓŁ</t>
+  </si>
+  <si>
+    <t>CHECKLIST</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Zawieszenie</t>
+  </si>
+  <si>
+    <t>Oświetlenie</t>
+  </si>
+  <si>
+    <t>Klimatyzacja</t>
+  </si>
+  <si>
+    <t>Silnik</t>
+  </si>
+  <si>
+    <t>Koła</t>
+  </si>
+  <si>
+    <t>Hamulce</t>
+  </si>
+  <si>
+    <t>Nadwozie</t>
+  </si>
+  <si>
+    <t>Podwozie</t>
+  </si>
+  <si>
+    <t>Korozja</t>
   </si>
   <si>
     <t>SERVICE</t>
@@ -149,10 +185,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="d&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color rgb="FF262626"/>
@@ -188,6 +225,11 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF262626"/>
@@ -196,7 +238,12 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -374,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -423,31 +470,85 @@
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="6" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="12" fillId="2" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="13" fillId="2" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -456,20 +557,44 @@
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="19" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,32 +609,11 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
-    <tableStyle count="2" pivot="0" name="Vehicle service record-style">
-      <tableStyleElement type="firstColumnStripe"/>
-      <tableStyleElement type="secondColumnStripe"/>
-    </tableStyle>
-  </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B19:H32" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="7">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
-    <tableColumn name="Column7" id="7"/>
-  </tableColumns>
-  <tableStyleInfo name="Vehicle service record-style" showColumnStripes="1" showFirstColumn="1" showLastColumn="1" showRowStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,7 +879,7 @@
       </c>
       <c r="H4" s="10">
         <f>TODAY()</f>
-        <v>45536</v>
+        <v>45573</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -788,7 +892,7 @@
       </c>
       <c r="H5" s="10">
         <f>TODAY()+30</f>
-        <v>45566</v>
+        <v>45603</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -890,67 +994,89 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" ht="27.75" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="17">
-        <f>TODAY()</f>
-        <v>45536</v>
-      </c>
-      <c r="D14" s="17">
-        <f>TODAY()+30</f>
-        <v>45566</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="1"/>
+      <c r="C14" s="18">
+        <v>45292.0</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" ref="D14:F14" si="1">TODAY()+30</f>
+        <v>45603</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="1"/>
+        <v>45603</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>45603</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
     </row>
     <row r="15" ht="27.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="23">
         <v>26000.0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="23">
         <v>28000.0</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" ht="27.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="21">
-        <f>SUBTOTAL(109,'Vehicle service record'!$C$20:$C$32)</f>
+      <c r="C16" s="25">
+        <f>SUBTOTAL(109,'Vehicle service record'!$C$31:$C$43)</f>
         <v>47</v>
       </c>
-      <c r="D16" s="21">
-        <f>SUBTOTAL(109,'Vehicle service record'!$D$20:$D$32)</f>
+      <c r="D16" s="25">
+        <f>SUBTOTAL(109,'Vehicle service record'!$D$31:$D$43)</f>
         <v>146</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="25">
         <f>SUBTOTAL(109,'Vehicle service record'!$E$20:$E$32)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="25">
         <f>SUBTOTAL(109,'Vehicle service record'!$F$20:$F$32)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="25">
         <f>SUBTOTAL(109,'Vehicle service record'!$G$20:$G$32)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="26">
         <f>SUBTOTAL(109,'Vehicle service record'!$H$20:$H$32)</f>
         <v>0</v>
       </c>
@@ -969,248 +1095,656 @@
     </row>
     <row r="18" ht="27.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" ht="27.75" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="1"/>
+      <c r="C19" s="33">
+        <f t="shared" ref="C19:F19" si="2">C14</f>
+        <v>45292</v>
+      </c>
+      <c r="D19" s="34">
+        <f t="shared" si="2"/>
+        <v>45603</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="2"/>
+        <v>45603</v>
+      </c>
+      <c r="F19" s="33">
+        <f t="shared" si="2"/>
+        <v>45603</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
     </row>
     <row r="20" ht="27.75" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="30">
-        <v>23.0</v>
-      </c>
-      <c r="D20" s="30">
-        <v>19.0</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="B20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" ht="27.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30">
-        <v>17.0</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="B21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" ht="27.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="30">
-        <v>5.0</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+      <c r="B22" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" ht="27.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="30">
-        <v>19.0</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="B23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" ht="27.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="B24" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" ht="27.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="B25" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" ht="27.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="B26" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" ht="27.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
+      <c r="B27" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" ht="27.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" ht="27.75" customHeight="1">
+      <c r="A29" s="40"/>
+      <c r="B29" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+    </row>
+    <row r="30" ht="27.75" customHeight="1">
+      <c r="A30" s="40"/>
+      <c r="B30" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30">
+      <c r="F30" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+    </row>
+    <row r="31" ht="27.75" customHeight="1">
+      <c r="A31" s="40"/>
+      <c r="B31" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="49">
+        <v>23.0</v>
+      </c>
+      <c r="D31" s="49">
+        <v>19.0</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+    </row>
+    <row r="32" ht="27.75" customHeight="1">
+      <c r="A32" s="40"/>
+      <c r="B32" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="49">
+        <v>17.0</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+    </row>
+    <row r="33" ht="30.0" customHeight="1">
+      <c r="A33" s="40"/>
+      <c r="B33" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+    </row>
+    <row r="34" ht="30.0" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="53">
+        <v>19.0</v>
+      </c>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+    </row>
+    <row r="35" ht="30.0" customHeight="1">
+      <c r="A35" s="56"/>
+      <c r="B35" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+    </row>
+    <row r="36" ht="30.0" customHeight="1">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+    </row>
+    <row r="37" ht="30.0" customHeight="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+    </row>
+    <row r="38" ht="30.0" customHeight="1">
+      <c r="A38" s="56"/>
+      <c r="B38" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+    </row>
+    <row r="39" ht="30.0" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="53">
         <v>37.0</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" ht="27.75" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" ht="27.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" ht="27.75" customHeight="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30">
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+    </row>
+    <row r="40" ht="30.0" customHeight="1">
+      <c r="A40" s="56"/>
+      <c r="B40" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+    </row>
+    <row r="41" ht="30.0" customHeight="1">
+      <c r="A41" s="56"/>
+      <c r="B41" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+    </row>
+    <row r="42" ht="30.0" customHeight="1">
+      <c r="A42" s="56"/>
+      <c r="B42" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="53">
         <v>73.0</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" ht="27.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" ht="30.0" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" ht="30.0" customHeight="1"/>
-    <row r="35" ht="30.0" customHeight="1"/>
-    <row r="36" ht="30.0" customHeight="1"/>
-    <row r="37" ht="30.0" customHeight="1"/>
-    <row r="38" ht="30.0" customHeight="1"/>
-    <row r="39" ht="30.0" customHeight="1"/>
-    <row r="40" ht="30.0" customHeight="1"/>
-    <row r="41" ht="30.0" customHeight="1"/>
-    <row r="42" ht="30.0" customHeight="1"/>
-    <row r="43" ht="30.0" customHeight="1"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="45"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="45"/>
+      <c r="X42" s="45"/>
+      <c r="Y42" s="45"/>
+      <c r="Z42" s="45"/>
+    </row>
+    <row r="43" ht="30.0" customHeight="1">
+      <c r="A43" s="56"/>
+      <c r="B43" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+    </row>
     <row r="44" ht="30.0" customHeight="1"/>
     <row r="45" ht="30.0" customHeight="1"/>
     <row r="46" ht="30.0" customHeight="1"/>
@@ -2169,9 +2703,10 @@
     <row r="999" ht="30.0" customHeight="1"/>
     <row r="1000" ht="30.0" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:F11"/>
     <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.6" footer="0.0" header="0.0" left="0.4" right="0.4" top="0.4"/>
@@ -2180,8 +2715,5 @@
     <oddFooter/>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/5.Project/template.xlsx
+++ b/5.Project/template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Raport z naprawy</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>CHECKLIST</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
   <si>
     <t>Zawieszenie</t>
@@ -462,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -577,7 +574,7 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -588,9 +585,6 @@
     </xf>
     <xf borderId="19" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -975,7 +969,7 @@
       </c>
       <c r="H4" s="10">
         <f>TODAY()</f>
-        <v>45593</v>
+        <v>45601</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -988,7 +982,7 @@
       </c>
       <c r="H5" s="10">
         <f>TODAY()+30</f>
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1099,15 +1093,15 @@
       </c>
       <c r="D14" s="19">
         <f t="shared" ref="D14:F14" si="1">TODAY()+30</f>
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="1"/>
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
@@ -1207,22 +1201,10 @@
       <c r="B19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="33" t="str">
-        <f t="shared" ref="C19:F19" si="2">C11</f>
-        <v/>
-      </c>
-      <c r="D19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F19" s="33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
       <c r="I19" s="31"/>
@@ -1249,22 +1231,10 @@
       <c r="B20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="33" t="str">
-        <f t="shared" ref="C20:F20" si="3">C12</f>
-        <v/>
-      </c>
-      <c r="D20" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E20" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F20" s="33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="34"/>
       <c r="I20" s="31"/>
@@ -1291,22 +1261,10 @@
       <c r="B21" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="33" t="str">
-        <f t="shared" ref="C21:F21" si="4">C13</f>
-        <v/>
-      </c>
-      <c r="D21" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="E21" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F21" s="33" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
       <c r="I21" s="31"/>
@@ -1316,22 +1274,10 @@
       <c r="B22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="33">
-        <f t="shared" ref="C22:F22" si="5">C14</f>
-        <v>45292</v>
-      </c>
-      <c r="D22" s="33">
-        <f t="shared" si="5"/>
-        <v>45623</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="5"/>
-        <v>45623</v>
-      </c>
-      <c r="F22" s="33">
-        <f t="shared" si="5"/>
-        <v>45623</v>
-      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="33"/>
       <c r="H22" s="34"/>
       <c r="I22" s="31"/>
@@ -1341,22 +1287,10 @@
       <c r="B23" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="33">
-        <f t="shared" ref="C23:F23" si="6">C15</f>
-        <v>26000</v>
-      </c>
-      <c r="D23" s="33">
-        <f t="shared" si="6"/>
-        <v>28000</v>
-      </c>
-      <c r="E23" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="F23" s="33" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="34"/>
       <c r="I23" s="31"/>
@@ -1366,22 +1300,10 @@
       <c r="B24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="33">
-        <f t="shared" ref="C24:F24" si="7">C16</f>
-        <v>47</v>
-      </c>
-      <c r="D24" s="33">
-        <f t="shared" si="7"/>
-        <v>146</v>
-      </c>
-      <c r="E24" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="33">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="34"/>
       <c r="I24" s="31"/>
@@ -1391,22 +1313,10 @@
       <c r="B25" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="33" t="str">
-        <f t="shared" ref="C25:F25" si="8">C17</f>
-        <v/>
-      </c>
-      <c r="D25" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="E25" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F25" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="34"/>
       <c r="I25" s="31"/>
@@ -1416,22 +1326,10 @@
       <c r="B26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="33" t="str">
-        <f t="shared" ref="C26:F26" si="9">C18</f>
-        <v>Usterka zgłoszona przez klienta</v>
-      </c>
-      <c r="D26" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E26" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F26" s="33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
       <c r="I26" s="31"/>
@@ -1441,22 +1339,10 @@
       <c r="B27" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="33" t="str">
-        <f t="shared" ref="C27:F27" si="10">C19</f>
-        <v/>
-      </c>
-      <c r="D27" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="E27" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F27" s="33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
       <c r="G27" s="33"/>
       <c r="H27" s="34"/>
       <c r="I27" s="31"/>
@@ -1466,22 +1352,10 @@
       <c r="B28" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="33" t="str">
-        <f t="shared" ref="C28:F28" si="11">C20</f>
-        <v/>
-      </c>
-      <c r="D28" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="E28" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F28" s="33" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="34"/>
       <c r="I28" s="31"/>
@@ -1491,22 +1365,10 @@
       <c r="B29" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="33" t="str">
-        <f t="shared" ref="C29:F29" si="12">C21</f>
-        <v/>
-      </c>
-      <c r="D29" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E29" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F29" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="33"/>
       <c r="H29" s="34"/>
       <c r="I29" s="31"/>
@@ -1548,22 +1410,10 @@
       <c r="B31" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="39">
-        <f t="shared" ref="C31:F31" si="13">C14</f>
-        <v>45292</v>
-      </c>
-      <c r="D31" s="40">
-        <f t="shared" si="13"/>
-        <v>45623</v>
-      </c>
-      <c r="E31" s="39">
-        <f t="shared" si="13"/>
-        <v>45623</v>
-      </c>
-      <c r="F31" s="39">
-        <f t="shared" si="13"/>
-        <v>45623</v>
-      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="41"/>
       <c r="I31" s="37"/>
@@ -1587,15 +1437,15 @@
     </row>
     <row r="32" ht="27.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="1"/>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -1617,15 +1467,15 @@
     </row>
     <row r="33" ht="27.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="44"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="1"/>
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
@@ -1647,15 +1497,15 @@
     </row>
     <row r="34" ht="30.0" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
       <c r="I34" s="1"/>
       <c r="J34" s="36"/>
       <c r="K34" s="36"/>
@@ -1677,15 +1527,15 @@
     </row>
     <row r="35" ht="30.0" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="1"/>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
@@ -1707,15 +1557,15 @@
     </row>
     <row r="36" ht="30.0" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="44"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="43"/>
       <c r="I36" s="1"/>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -1737,15 +1587,15 @@
     </row>
     <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="44"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="43"/>
       <c r="I37" s="1"/>
       <c r="J37" s="36"/>
       <c r="K37" s="36"/>
@@ -1767,15 +1617,15 @@
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="44"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="43"/>
       <c r="I38" s="1"/>
       <c r="J38" s="36"/>
       <c r="K38" s="36"/>
@@ -1797,15 +1647,15 @@
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
       <c r="I39" s="1"/>
       <c r="J39" s="36"/>
       <c r="K39" s="36"/>
@@ -1827,15 +1677,12 @@
     </row>
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="44"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
       <c r="I40" s="1"/>
       <c r="J40" s="36"/>
       <c r="K40" s="36"/>
@@ -1856,19 +1703,19 @@
       <c r="Z40" s="36"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="50"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="49"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
@@ -1888,29 +1735,29 @@
       <c r="Z41" s="36"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="51" t="s">
+      <c r="A42" s="44"/>
+      <c r="B42" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="D42" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="E42" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="F42" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="52" t="s">
+      <c r="G42" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="52" t="s">
+      <c r="H42" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="I42" s="45"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="36"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
@@ -1930,21 +1777,21 @@
       <c r="Z42" s="36"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="54">
+      <c r="A43" s="44"/>
+      <c r="B43" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="53">
         <v>23.0</v>
       </c>
-      <c r="D43" s="54">
+      <c r="D43" s="53">
         <v>19.0</v>
       </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="45"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="36"/>
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
@@ -1964,19 +1811,19 @@
       <c r="Z43" s="36"/>
     </row>
     <row r="44" ht="30.0" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="54">
+      <c r="A44" s="44"/>
+      <c r="B44" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="53">
         <v>17.0</v>
       </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="45"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
@@ -1996,155 +1843,155 @@
       <c r="Z44" s="36"/>
     </row>
     <row r="45" ht="30.0" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="57" t="s">
+      <c r="A45" s="44"/>
+      <c r="B45" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="57">
+        <v>5.0</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="46" ht="30.0" customHeight="1">
+      <c r="A46" s="60"/>
+      <c r="B46" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="58">
-        <v>5.0</v>
-      </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="45"/>
-    </row>
-    <row r="46" ht="30.0" customHeight="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="62" t="s">
+      <c r="C46" s="57">
+        <v>19.0</v>
+      </c>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="60"/>
+    </row>
+    <row r="47" ht="30.0" customHeight="1">
+      <c r="A47" s="60"/>
+      <c r="B47" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="58">
-        <v>19.0</v>
-      </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="61"/>
-    </row>
-    <row r="47" ht="30.0" customHeight="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="62" t="s">
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="60"/>
+    </row>
+    <row r="48" ht="30.0" customHeight="1">
+      <c r="A48" s="60"/>
+      <c r="B48" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="61"/>
-    </row>
-    <row r="48" ht="30.0" customHeight="1">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="60"/>
+    </row>
+    <row r="49" ht="30.0" customHeight="1">
+      <c r="A49" s="60"/>
+      <c r="B49" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="61"/>
-    </row>
-    <row r="49" ht="30.0" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="62" t="s">
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="60"/>
+    </row>
+    <row r="50" ht="30.0" customHeight="1">
+      <c r="A50" s="60"/>
+      <c r="B50" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="61"/>
-    </row>
-    <row r="50" ht="30.0" customHeight="1">
-      <c r="A50" s="61"/>
-      <c r="B50" s="62" t="s">
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="60"/>
+    </row>
+    <row r="51" ht="30.0" customHeight="1">
+      <c r="A51" s="60"/>
+      <c r="B51" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="61"/>
-    </row>
-    <row r="51" ht="30.0" customHeight="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="62" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="57">
+        <v>37.0</v>
+      </c>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="60"/>
+    </row>
+    <row r="52" ht="30.0" customHeight="1">
+      <c r="A52" s="60"/>
+      <c r="B52" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="58">
-        <v>37.0</v>
-      </c>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="61"/>
-    </row>
-    <row r="52" ht="30.0" customHeight="1">
-      <c r="A52" s="61"/>
-      <c r="B52" s="62" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="60"/>
+    </row>
+    <row r="53" ht="30.0" customHeight="1">
+      <c r="A53" s="60"/>
+      <c r="B53" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="61"/>
-    </row>
-    <row r="53" ht="30.0" customHeight="1">
-      <c r="A53" s="61"/>
-      <c r="B53" s="62" t="s">
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="60"/>
+    </row>
+    <row r="54" ht="30.0" customHeight="1">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="61"/>
-    </row>
-    <row r="54" ht="30.0" customHeight="1">
-      <c r="A54" s="61"/>
-      <c r="B54" s="62" t="s">
+      <c r="C54" s="58"/>
+      <c r="D54" s="57">
+        <v>73.0</v>
+      </c>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="60"/>
+    </row>
+    <row r="55" ht="30.0" customHeight="1">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58">
-        <v>73.0</v>
-      </c>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="61"/>
-    </row>
-    <row r="55" ht="30.0" customHeight="1">
-      <c r="A55" s="61"/>
-      <c r="B55" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="61"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="60"/>
     </row>
     <row r="56" ht="30.0" customHeight="1"/>
     <row r="57" ht="30.0" customHeight="1"/>

--- a/5.Project/template.xlsx
+++ b/5.Project/template.xlsx
@@ -11,72 +11,72 @@
     <definedName name="RowTitleRegion4..H9">'Vehicle service record'!$B$14</definedName>
     <definedName name="RowTitleRegion1..C5">'Vehicle service record'!$B$9</definedName>
     <definedName name="RowTitleRegion3..H5">'Vehicle service record'!$G$9</definedName>
-    <definedName name="Title1">'Vehicle service record'!$B$30</definedName>
+    <definedName name="Title1">'Vehicle service record'!$B$39</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="u2aqzTES/ACrh9RgrrpN/6e3xBvkHUknTqpEUg0Z/W8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FXfZXMyQ3Ysq4X00owxpDuQZX6TU3Fwb5qApgrmQHxU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Raport z naprawy</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL SERVICE COSTS:  </t>
-  </si>
-  <si>
-    <t>PERIOD START:</t>
-  </si>
-  <si>
-    <t>PERIOD END:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OWNER NAME: </t>
+    <t>Łączny koszt serwisów:</t>
+  </si>
+  <si>
+    <t>Data rozpoczęcia:</t>
+  </si>
+  <si>
+    <t>Data zakończenia:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klient: </t>
   </si>
   <si>
     <t>Takanori Ito</t>
   </si>
   <si>
-    <t xml:space="preserve">VEHICLE MAKE: </t>
+    <t xml:space="preserve">Marka: </t>
   </si>
   <si>
     <t>Auto</t>
   </si>
   <si>
-    <t xml:space="preserve">YEAR: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODEL: </t>
+    <t>Rok:</t>
+  </si>
+  <si>
+    <t>Model:</t>
   </si>
   <si>
     <t>A100</t>
   </si>
   <si>
-    <t xml:space="preserve">VIN NO: </t>
+    <t>VIN:</t>
   </si>
   <si>
     <t>ABC1234567890</t>
   </si>
   <si>
-    <t xml:space="preserve">LICENSE NO: </t>
+    <t>Numer rejestracji:</t>
   </si>
   <si>
     <t>XYZ 123</t>
   </si>
   <si>
-    <t xml:space="preserve">SERVICE DATE: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MILEAGE: </t>
-  </si>
-  <si>
-    <t>TOTALS:</t>
+    <t xml:space="preserve">Data serwisu: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przebieg: </t>
+  </si>
+  <si>
+    <t>Kwota:</t>
   </si>
   <si>
     <t>Usterka zgłoszona przez klienta</t>
@@ -115,10 +115,37 @@
     <t>Usterka 11</t>
   </si>
   <si>
+    <t>Usterka 12</t>
+  </si>
+  <si>
+    <t>Usterka 13</t>
+  </si>
+  <si>
+    <t>Usterka 14</t>
+  </si>
+  <si>
+    <t>Usterka 15</t>
+  </si>
+  <si>
+    <t>Usterka 16</t>
+  </si>
+  <si>
+    <t>Usterka 17</t>
+  </si>
+  <si>
+    <t>Usterka 18</t>
+  </si>
+  <si>
+    <t>Usterka 19</t>
+  </si>
+  <si>
+    <t>Usterka 20</t>
+  </si>
+  <si>
     <t>PODZESPÓŁ</t>
   </si>
   <si>
-    <t>CHECKLIST</t>
+    <t>CHECKLISTA</t>
   </si>
   <si>
     <t>Zawieszenie</t>
@@ -148,70 +175,19 @@
     <t>Korozja</t>
   </si>
   <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>COST OF SERVICE</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Amount 1</t>
-  </si>
-  <si>
-    <t>Amount 2</t>
-  </si>
-  <si>
-    <t>Amount 3</t>
-  </si>
-  <si>
-    <t>Amount 4</t>
-  </si>
-  <si>
-    <t>Amount 5</t>
-  </si>
-  <si>
-    <t>Amount 6</t>
-  </si>
-  <si>
-    <t>Change oil</t>
-  </si>
-  <si>
-    <t>Lubricate chassis</t>
-  </si>
-  <si>
-    <t>Change oil filter</t>
-  </si>
-  <si>
-    <t>Change air filter</t>
-  </si>
-  <si>
-    <t>Change transmission fluid</t>
-  </si>
-  <si>
-    <t>Flush cooling system</t>
-  </si>
-  <si>
-    <t>Add antifreeze</t>
-  </si>
-  <si>
-    <t>Align wheels</t>
-  </si>
-  <si>
-    <t>Rotate tires</t>
-  </si>
-  <si>
-    <t>Replace tires</t>
-  </si>
-  <si>
-    <t>Adjust brakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tune engine </t>
-  </si>
-  <si>
-    <t>Other service</t>
+    <t>SERWIS</t>
+  </si>
+  <si>
+    <t>KOSZT</t>
+  </si>
+  <si>
+    <t>Co należy naprawić jak najszybciej</t>
+  </si>
+  <si>
+    <t>Co należy naprawić przy następnym przeglądzie</t>
+  </si>
+  <si>
+    <t>Komentarz, dodatkowe informacje</t>
   </si>
 </sst>
 </file>
@@ -222,7 +198,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="d&quot;.&quot;mm&quot;.&quot;yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color rgb="FF262626"/>
@@ -279,6 +255,11 @@
       <color theme="1"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF223944"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -300,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border/>
     <border>
       <left/>
@@ -455,11 +436,41 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -479,7 +490,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -494,7 +505,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -511,8 +522,8 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -526,9 +537,6 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="12" fillId="2" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -574,7 +582,10 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -586,6 +597,9 @@
     <xf borderId="19" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -596,18 +610,15 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="15" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -640,10 +651,22 @@
     <xf borderId="19" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -956,7 +979,7 @@
       </c>
       <c r="H3" s="7">
         <f>SUM(Totals)</f>
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -969,7 +992,7 @@
       </c>
       <c r="H4" s="10">
         <f>TODAY()</f>
-        <v>45601</v>
+        <v>45613</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -982,7 +1005,7 @@
       </c>
       <c r="H5" s="10">
         <f>TODAY()+30</f>
-        <v>45631</v>
+        <v>45643</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1093,15 +1116,15 @@
       </c>
       <c r="D14" s="19">
         <f t="shared" ref="D14:F14" si="1">TODAY()+30</f>
-        <v>45631</v>
+        <v>45643</v>
       </c>
       <c r="E14" s="19">
         <f t="shared" si="1"/>
-        <v>45631</v>
+        <v>45643</v>
       </c>
       <c r="F14" s="19">
         <f t="shared" si="1"/>
-        <v>45631</v>
+        <v>45643</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20"/>
@@ -1126,48 +1149,48 @@
     </row>
     <row r="15" ht="27.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>26000.0</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>28000.0</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" ht="27.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25">
-        <f>SUBTOTAL(109,'Vehicle service record'!$C$43:$C$55)</f>
-        <v>47</v>
-      </c>
-      <c r="D16" s="25">
-        <f>SUBTOTAL(109,'Vehicle service record'!$D$43:$D$55)</f>
-        <v>146</v>
-      </c>
-      <c r="E16" s="25">
-        <f>SUBTOTAL(109,'Vehicle service record'!$E$32:$E$44)</f>
+      <c r="C16" s="24">
+        <f>SUBTOTAL(109,'Vehicle service record'!$C$52:$C$64)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="25">
-        <f>SUBTOTAL(109,'Vehicle service record'!$F$32:$F$44)</f>
+      <c r="D16" s="24">
+        <f>SUBTOTAL(109,'Vehicle service record'!$D$52:$D$64)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="25">
-        <f>SUBTOTAL(109,'Vehicle service record'!$G$32:$G$44)</f>
+      <c r="E16" s="24">
+        <f>SUBTOTAL(109,'Vehicle service record'!$E$41:$E$53)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="26">
-        <f>SUBTOTAL(109,'Vehicle service record'!$H$32:$H$44)</f>
+      <c r="F16" s="24">
+        <f>SUBTOTAL(109,'Vehicle service record'!$F$41:$F$53)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f>SUBTOTAL(109,'Vehicle service record'!$G$41:$G$53)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <f>SUBTOTAL(109,'Vehicle service record'!$H$41:$H$53)</f>
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
@@ -1185,835 +1208,958 @@
     </row>
     <row r="18" ht="27.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" ht="27.75" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
     </row>
     <row r="20" ht="27.75" customHeight="1">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
     </row>
     <row r="21" ht="27.75" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" ht="27.75" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" ht="27.75" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" ht="27.75" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" ht="27.75" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="30"/>
     </row>
     <row r="26" ht="27.75" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="30"/>
     </row>
     <row r="27" ht="27.75" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="31"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="30"/>
     </row>
     <row r="28" ht="27.75" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="30"/>
     </row>
     <row r="29" ht="27.75" customHeight="1">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="31"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="30"/>
     </row>
     <row r="30" ht="27.75" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+    </row>
+    <row r="31" ht="27.75" customHeight="1">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="36"/>
-    </row>
-    <row r="31" ht="27.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+    </row>
+    <row r="32" ht="27.75" customHeight="1">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="36"/>
-    </row>
-    <row r="32" ht="27.75" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="38" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+    </row>
+    <row r="33" ht="27.75" customHeight="1">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="36"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-    </row>
-    <row r="33" ht="27.75" customHeight="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="38" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+    </row>
+    <row r="34" ht="30.0" customHeight="1">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="36"/>
-    </row>
-    <row r="34" ht="30.0" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="38" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+    </row>
+    <row r="35" ht="30.0" customHeight="1">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="36"/>
-      <c r="R34" s="36"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="36"/>
-    </row>
-    <row r="35" ht="30.0" customHeight="1">
-      <c r="A35" s="1"/>
-      <c r="B35" s="38" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+    </row>
+    <row r="36" ht="30.0" customHeight="1">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="36"/>
-      <c r="R35" s="36"/>
-      <c r="S35" s="36"/>
-      <c r="T35" s="36"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="36"/>
-      <c r="X35" s="36"/>
-      <c r="Y35" s="36"/>
-      <c r="Z35" s="36"/>
-    </row>
-    <row r="36" ht="30.0" customHeight="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="38" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+    </row>
+    <row r="37" ht="30.0" customHeight="1">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="36"/>
-    </row>
-    <row r="37" ht="30.0" customHeight="1">
-      <c r="A37" s="1"/>
-      <c r="B37" s="38" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+    </row>
+    <row r="38" ht="30.0" customHeight="1">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-    </row>
-    <row r="38" ht="30.0" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="36"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="36"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
-      <c r="A40" s="1"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="46" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
-      <c r="A42" s="44"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="1"/>
+      <c r="B42" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+    </row>
+    <row r="43" ht="30.0" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="42"/>
+    </row>
+    <row r="44" ht="30.0" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" ht="30.0" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="51" t="s">
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
+    </row>
+    <row r="46" ht="30.0" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
+    </row>
+    <row r="47" ht="30.0" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="H42" s="52" t="s">
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+    </row>
+    <row r="48" ht="30.0" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I42" s="44"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-    </row>
-    <row r="43" ht="30.0" customHeight="1">
-      <c r="A43" s="44"/>
-      <c r="B43" s="50" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
+    </row>
+    <row r="49" ht="30.0" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
+    </row>
+    <row r="50" ht="30.0" customHeight="1">
+      <c r="A50" s="42"/>
+      <c r="B50" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="53">
-        <v>23.0</v>
-      </c>
-      <c r="D43" s="53">
-        <v>19.0</v>
-      </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="36"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="36"/>
-      <c r="T43" s="36"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="36"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="36"/>
-      <c r="Y43" s="36"/>
-      <c r="Z43" s="36"/>
-    </row>
-    <row r="44" ht="30.0" customHeight="1">
-      <c r="A44" s="44"/>
-      <c r="B44" s="50" t="s">
+      <c r="C50" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="53">
-        <v>17.0</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-    </row>
-    <row r="45" ht="30.0" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="57">
-        <v>5.0</v>
-      </c>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="44"/>
-    </row>
-    <row r="46" ht="30.0" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="57">
-        <v>19.0</v>
-      </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="60"/>
-    </row>
-    <row r="47" ht="30.0" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="60"/>
-    </row>
-    <row r="48" ht="30.0" customHeight="1">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="60"/>
-    </row>
-    <row r="49" ht="30.0" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="60"/>
-    </row>
-    <row r="50" ht="30.0" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="60"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="45"/>
     </row>
     <row r="51" ht="30.0" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="57">
-        <v>37.0</v>
-      </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="60"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="45"/>
     </row>
     <row r="52" ht="30.0" customHeight="1">
-      <c r="A52" s="60"/>
-      <c r="B52" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="60"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="45"/>
     </row>
     <row r="53" ht="30.0" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="60"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="45"/>
     </row>
     <row r="54" ht="30.0" customHeight="1">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="57">
-        <v>73.0</v>
-      </c>
+      <c r="A54" s="42"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="58"/>
       <c r="E54" s="58"/>
       <c r="F54" s="58"/>
       <c r="G54" s="58"/>
       <c r="H54" s="59"/>
-      <c r="I54" s="60"/>
     </row>
     <row r="55" ht="30.0" customHeight="1">
-      <c r="A55" s="60"/>
-      <c r="B55" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="58"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
       <c r="F55" s="58"/>
       <c r="G55" s="58"/>
       <c r="H55" s="59"/>
-      <c r="I55" s="60"/>
-    </row>
-    <row r="56" ht="30.0" customHeight="1"/>
-    <row r="57" ht="30.0" customHeight="1"/>
-    <row r="58" ht="30.0" customHeight="1"/>
-    <row r="59" ht="30.0" customHeight="1"/>
-    <row r="60" ht="30.0" customHeight="1"/>
-    <row r="61" ht="30.0" customHeight="1"/>
-    <row r="62" ht="30.0" customHeight="1"/>
-    <row r="63" ht="30.0" customHeight="1"/>
-    <row r="64" ht="30.0" customHeight="1"/>
-    <row r="65" ht="30.0" customHeight="1"/>
-    <row r="66" ht="30.0" customHeight="1"/>
-    <row r="67" ht="30.0" customHeight="1"/>
-    <row r="68" ht="30.0" customHeight="1"/>
-    <row r="69" ht="30.0" customHeight="1"/>
-    <row r="70" ht="30.0" customHeight="1"/>
-    <row r="71" ht="30.0" customHeight="1"/>
-    <row r="72" ht="30.0" customHeight="1"/>
-    <row r="73" ht="30.0" customHeight="1"/>
-    <row r="74" ht="30.0" customHeight="1"/>
-    <row r="75" ht="30.0" customHeight="1"/>
-    <row r="76" ht="30.0" customHeight="1"/>
+    </row>
+    <row r="56" ht="30.0" customHeight="1">
+      <c r="A56" s="45"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="59"/>
+    </row>
+    <row r="57" ht="30.0" customHeight="1">
+      <c r="A57" s="45"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="59"/>
+    </row>
+    <row r="58" ht="30.0" customHeight="1">
+      <c r="A58" s="45"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
+    </row>
+    <row r="59" ht="30.0" customHeight="1">
+      <c r="A59" s="45"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="59"/>
+    </row>
+    <row r="60" ht="30.0" customHeight="1">
+      <c r="A60" s="45"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="59"/>
+    </row>
+    <row r="61" ht="30.0" customHeight="1">
+      <c r="A61" s="45"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="59"/>
+    </row>
+    <row r="62" ht="30.0" customHeight="1">
+      <c r="A62" s="45"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="59"/>
+    </row>
+    <row r="63" ht="30.0" customHeight="1">
+      <c r="A63" s="45"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="59"/>
+    </row>
+    <row r="64" ht="30.0" customHeight="1">
+      <c r="A64" s="45"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="59"/>
+    </row>
+    <row r="65" ht="30.0" customHeight="1">
+      <c r="A65" s="1"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" ht="30.0" customHeight="1">
+      <c r="A66" s="30"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+    </row>
+    <row r="67" ht="30.0" customHeight="1">
+      <c r="A67" s="30"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+    </row>
+    <row r="68" ht="30.0" customHeight="1">
+      <c r="A68" s="30"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
+    </row>
+    <row r="69" ht="30.0" customHeight="1">
+      <c r="A69" s="1"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="29"/>
+    </row>
+    <row r="70" ht="30.0" customHeight="1">
+      <c r="A70" s="30"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+    </row>
+    <row r="71" ht="30.0" customHeight="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+    </row>
+    <row r="72" ht="30.0" customHeight="1">
+      <c r="A72" s="30"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+    </row>
+    <row r="73" ht="30.0" customHeight="1">
+      <c r="A73" s="1"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" ht="30.0" customHeight="1">
+      <c r="A74" s="30"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+    </row>
+    <row r="75" ht="30.0" customHeight="1">
+      <c r="A75" s="30"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+    </row>
+    <row r="76" ht="30.0" customHeight="1">
+      <c r="A76" s="30"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+    </row>
     <row r="77" ht="30.0" customHeight="1"/>
     <row r="78" ht="30.0" customHeight="1"/>
     <row r="79" ht="30.0" customHeight="1"/>
@@ -2937,14 +3083,33 @@
     <row r="997" ht="30.0" customHeight="1"/>
     <row r="998" ht="30.0" customHeight="1"/>
     <row r="999" ht="30.0" customHeight="1"/>
-    <row r="1000" ht="30.0" customHeight="1"/>
-    <row r="1001" ht="30.0" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="25">
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="C69:H69"/>
     <mergeCell ref="B3:F11"/>
     <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C50:H50"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.6" footer="0.0" header="0.0" left="0.4" right="0.4" top="0.4"/>

--- a/5.Project/template.xlsx
+++ b/5.Project/template.xlsx
@@ -194,9 +194,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$zł-415]"/>
     <numFmt numFmtId="165" formatCode="d&quot;.&quot;mm&quot;.&quot;yyyy"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -281,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border/>
     <border>
       <left/>
@@ -344,18 +345,6 @@
       <right style="thin">
         <color rgb="FF335666"/>
       </right>
-      <top style="thin">
-        <color rgb="FF335666"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF335666"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF335666"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FF335666"/>
       </top>
@@ -470,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -528,145 +517,142 @@
     <xf borderId="12" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="6" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
     <xf borderId="12" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="13" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="15" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="20" fillId="0" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7">
-        <f>SUM(Totals)</f>
+        <f>SUM(C16:H16)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
@@ -992,7 +978,7 @@
       </c>
       <c r="H4" s="10">
         <f>TODAY()</f>
-        <v>45613</v>
+        <v>45621</v>
       </c>
       <c r="I4" s="1"/>
     </row>
@@ -1005,7 +991,7 @@
       </c>
       <c r="H5" s="10">
         <f>TODAY()+30</f>
-        <v>45643</v>
+        <v>45651</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -1111,57 +1097,54 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18">
-        <v>45292.0</v>
-      </c>
-      <c r="D14" s="19">
-        <f t="shared" ref="D14:F14" si="1">TODAY()+30</f>
-        <v>45643</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="str">
+        <f t="shared" ref="F14:H14" si="1">K4</f>
+        <v/>
+      </c>
+      <c r="G14" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>45643</v>
-      </c>
-      <c r="F14" s="19">
+        <v/>
+      </c>
+      <c r="H14" s="18" t="str">
         <f t="shared" si="1"/>
-        <v>45643</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+        <v/>
+      </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
     </row>
     <row r="15" ht="27.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="22">
-        <v>26000.0</v>
-      </c>
-      <c r="D15" s="22">
-        <v>28000.0</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="18" t="str">
+        <f>M5</f>
+        <v/>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" ht="27.75" customHeight="1">
@@ -1169,28 +1152,28 @@
       <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="24">
-        <f>SUBTOTAL(109,'Vehicle service record'!$C$52:$C$64)</f>
+      <c r="C16" s="21">
+        <f>SUBTOTAL(109,'Vehicle service record'!$C$51:$C$64)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="24">
-        <f>SUBTOTAL(109,'Vehicle service record'!$D$52:$D$64)</f>
+      <c r="D16" s="21">
+        <f>SUBTOTAL(109,'Vehicle service record'!$D$51:$D$64)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24">
-        <f>SUBTOTAL(109,'Vehicle service record'!$E$41:$E$53)</f>
+      <c r="E16" s="21">
+        <f>SUBTOTAL(109,'Vehicle service record'!$E$51:$E$64)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="24">
-        <f>SUBTOTAL(109,'Vehicle service record'!$F$41:$F$53)</f>
+      <c r="F16" s="21">
+        <f>SUBTOTAL(109,'Vehicle service record'!$F$51:$F$64)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="24">
-        <f>SUBTOTAL(109,'Vehicle service record'!$G$41:$G$53)</f>
+      <c r="G16" s="21">
+        <f>SUBTOTAL(109,'Vehicle service record'!$G$51:$G$64)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="25">
-        <f>SUBTOTAL(109,'Vehicle service record'!$H$41:$H$53)</f>
+      <c r="H16" s="21">
+        <f>SUBTOTAL(109,'Vehicle service record'!$H$51:$H$64)</f>
         <v>0</v>
       </c>
       <c r="I16" s="1"/>
@@ -1208,957 +1191,957 @@
     </row>
     <row r="18" ht="27.75" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" ht="27.75" customHeight="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
     </row>
     <row r="20" ht="27.75" customHeight="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
     </row>
     <row r="21" ht="27.75" customHeight="1">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="30"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" ht="27.75" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="30"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" ht="27.75" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="30"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" ht="27.75" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="30"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" ht="27.75" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="30"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" ht="27.75" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="30"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" ht="27.75" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="30"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" ht="27.75" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="30"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" ht="27.75" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="30"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" ht="27.75" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
     </row>
     <row r="31" ht="27.75" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
     </row>
     <row r="32" ht="27.75" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
     </row>
     <row r="33" ht="27.75" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
     </row>
     <row r="34" ht="30.0" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
     </row>
     <row r="35" ht="30.0" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
     </row>
     <row r="36" ht="30.0" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
     </row>
     <row r="37" ht="30.0" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
     </row>
     <row r="38" ht="30.0" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
     </row>
     <row r="40" ht="30.0" customHeight="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="31"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="42"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="38"/>
     </row>
     <row r="44" ht="30.0" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="45"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="45"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41"/>
     </row>
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="45"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="41"/>
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="41"/>
     </row>
     <row r="48" ht="30.0" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="45"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="41"/>
     </row>
     <row r="49" ht="30.0" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="44"/>
-      <c r="I49" s="45"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="41"/>
     </row>
     <row r="50" ht="30.0" customHeight="1">
-      <c r="A50" s="42"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="45"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="41"/>
     </row>
     <row r="51" ht="30.0" customHeight="1">
-      <c r="A51" s="42"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="45"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="41"/>
     </row>
     <row r="52" ht="30.0" customHeight="1">
-      <c r="A52" s="42"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="45"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="41"/>
     </row>
     <row r="53" ht="30.0" customHeight="1">
-      <c r="A53" s="42"/>
-      <c r="B53" s="50"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="54"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="45"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="41"/>
     </row>
     <row r="54" ht="30.0" customHeight="1">
-      <c r="A54" s="42"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="59"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="58"/>
     </row>
     <row r="55" ht="30.0" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="59"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="58"/>
     </row>
     <row r="56" ht="30.0" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="59"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
     </row>
     <row r="57" ht="30.0" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="58"/>
     </row>
     <row r="58" ht="30.0" customHeight="1">
-      <c r="A58" s="45"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="58"/>
     </row>
     <row r="59" ht="30.0" customHeight="1">
-      <c r="A59" s="45"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="58"/>
     </row>
     <row r="60" ht="30.0" customHeight="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="59"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="58"/>
     </row>
     <row r="61" ht="30.0" customHeight="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="59"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="58"/>
     </row>
     <row r="62" ht="30.0" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="59"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="58"/>
     </row>
     <row r="63" ht="30.0" customHeight="1">
-      <c r="A63" s="45"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="59"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="58"/>
     </row>
     <row r="64" ht="30.0" customHeight="1">
-      <c r="A64" s="45"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="59"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="58"/>
     </row>
     <row r="65" ht="30.0" customHeight="1">
       <c r="A65" s="1"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="27" t="s">
+      <c r="B65" s="22"/>
+      <c r="C65" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="29"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="25"/>
     </row>
     <row r="66" ht="30.0" customHeight="1">
-      <c r="A66" s="30"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="62"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="62"/>
-      <c r="E66" s="63"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="62"/>
       <c r="G66" s="62"/>
       <c r="H66" s="62"/>
     </row>
     <row r="67" ht="30.0" customHeight="1">
-      <c r="A67" s="30"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" ht="30.0" customHeight="1">
-      <c r="A68" s="30"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="65"/>
-      <c r="H68" s="65"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
     </row>
     <row r="69" ht="30.0" customHeight="1">
       <c r="A69" s="1"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="29"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25"/>
     </row>
     <row r="70" ht="30.0" customHeight="1">
-      <c r="A70" s="30"/>
-      <c r="B70" s="61"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
-      <c r="E70" s="63"/>
+      <c r="E70" s="61"/>
       <c r="F70" s="62"/>
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
     </row>
     <row r="71" ht="30.0" customHeight="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" ht="30.0" customHeight="1">
-      <c r="A72" s="30"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" ht="30.0" customHeight="1">
       <c r="A73" s="1"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25"/>
     </row>
     <row r="74" ht="30.0" customHeight="1">
-      <c r="A74" s="30"/>
-      <c r="B74" s="61"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="62"/>
       <c r="D74" s="62"/>
-      <c r="E74" s="63"/>
+      <c r="E74" s="61"/>
       <c r="F74" s="62"/>
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
     </row>
     <row r="75" ht="30.0" customHeight="1">
-      <c r="A75" s="30"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="63"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
     </row>
     <row r="76" ht="30.0" customHeight="1">
-      <c r="A76" s="30"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
     </row>
     <row r="77" ht="30.0" customHeight="1"/>
     <row r="78" ht="30.0" customHeight="1"/>
@@ -3085,31 +3068,31 @@
     <row r="999" ht="30.0" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="E66:E68"/>
     <mergeCell ref="F66:F68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="G66:G68"/>
     <mergeCell ref="H66:H68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="C69:H69"/>
     <mergeCell ref="B3:F11"/>
     <mergeCell ref="C18:H18"/>
-    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
     <mergeCell ref="E74:E76"/>
     <mergeCell ref="F74:F76"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="C73:H73"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="0.6" footer="0.0" header="0.0" left="0.4" right="0.4" top="0.4"/>
